--- a/doc/数据质控工作计划.xlsx
+++ b/doc/数据质控工作计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>代码更新下来，启动程序，了解组件，自己动手试试，基本了解这个东西是什么，能干啥。在github上可以记录遇到的问题，怎么解决的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移5.1.3版本的monitor,添加缺少的包，屏蔽报错代码，尝试能不能启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴勇军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,6 +457,17 @@
         <v>5.22</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>5.22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
